--- a/inst/shiny-examples/BCGcalc/external/RMD/files/ThermPrefMetric_ReqFields_20230203.xlsx
+++ b/inst/shiny-examples/BCGcalc/external/RMD/files/ThermPrefMetric_ReqFields_20230203.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jen.Stamp\Documents\BCGcalc_Task5\Instructions_20230202\ThermPrefMetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEAED323-57E4-480A-BAE0-E2824405E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50836CC-0E59-497E-9AA9-E2FA8CA5CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2EFBDD-FB34-4C6F-8854-8C7433FCCEDF}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2EFBDD-FB34-4C6F-8854-8C7433FCCEDF}"/>
   </bookViews>
   <sheets>
     <sheet name="RequiredFields" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="393">
   <si>
     <t>SAMPLEID</t>
   </si>
@@ -1213,6 +1213,9 @@
   </si>
   <si>
     <t>Thermal preference assignment based on Stamp et al. (in progress): stenoc=cold stenotherm; cold, cool, cowa = cool/warm, warm, stenow = warm stenotherm, eurythermal</t>
+  </si>
+  <si>
+    <t>logical</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1613,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1681,7 @@
         <v>376</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>377</v>
@@ -1692,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>377</v>
